--- a/MCTC_MSCF_Directory.xlsx
+++ b/MCTC_MSCF_Directory.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MSCF Directory" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MSCF Directory 2020-02-24 2238" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -350,7 +350,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -372,22 +372,5334 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Dept</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Dept</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Naa-Adjeley</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Ablorh</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Biology</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>S.1550</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>naa-adjeley.ablorh@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>612-659-6441</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Mary</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Ahmann</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Cinema</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>T.4003</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>mary.ahmann@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>612-200-5245</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Mitchell</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Albers</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Biology</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>S.3330</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>mitch.albers@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>612-659-6002</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Elizabeth</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alwin</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Carol</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Amis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Professional Nursing</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>H.5113</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>carol.amis@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>612-200-5290</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Laura</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Andrews</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Fine Arts</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>F.1302</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>laura.andrews@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>612-200-5250</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Carroll</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Barnes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Accounting</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>M.1150</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>carroll.barnes@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>612-659-6006</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Katie</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bashore</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Women's Studies</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>H.4124</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>katie.bashore@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>612-200-5397</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Elissah</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Becknell</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Information Studies</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>L.1604</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>elissah.becknell@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>612-200-5334</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lisa</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bergin</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Philosophy</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>H.3305</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>lisa.bergin@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>612-200-5237</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Kirk</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Boraas</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Chemistry</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>S.3580</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>kirk.boraas@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>612-659-6064</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Scott</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Boras</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Communication Studies</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>K.3303</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>scott.boras@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>612-200-5367</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Hafed</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Bouassida</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Cinema</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>T.4004</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>hafed.bouassida@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>612-659-6008</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Bowman</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Photography &amp; Digital Imaging</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>T.3604</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>david.bowman.2@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>612-659-4117</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Tracy</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Boyle</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Architectural Technologies</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>T.4810</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>tracy.boyle@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>612-200-5222</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Bremer</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>English as a Second Language</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>T.5064</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>david.bremer@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>612-659-6009</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Todd</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Bridigum</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Welding and Metal Fabrication</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>T.0250</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>todd.bridigum@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>612-659-6054</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Clyde</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Brotherson</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>T.5061</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>clyde.brotherson@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>612-200-5240</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Carmen</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Buhler</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Mathematics</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>K.2609</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>carmen.buhler@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>612-659-6419</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Matthew</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Carhart</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>History</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>H.1403</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>matt.carhart@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Matthew</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Carhart</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>History</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>H.1403</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>matt.carhart@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Donna</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Carr</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Wendi</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Chen</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>H.4116</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>wendi.chen@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>612-659-6017</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Andrew</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Chrastek</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Information Technology Programs</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>T.3065</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>andy.chrastek@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>612-659-6018</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Lynn</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Coffey</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Psychology</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>H.1405</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>lynn.coffey@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>612-659-6451</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Thomas</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Creel</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Christopher</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Cunningham</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Sound Arts</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>F.2405</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>christopher.cunningham@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>612-200-5382</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Jason</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Cussler</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Business Management</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>M.1170</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>jason.cussler@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>612-200-5513</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Kathleen</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Daniels</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Library Operations</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>L.1602</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>kathleen.daniels@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>612-659-6285</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Diane</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Dau</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>William</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Dawkins</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>H.4145</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>william.dawkins@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>612-659-4113</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Nicholas</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Deacon</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Biology</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>S.1580</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>nicholas.deacon@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>612-659-6089</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Renee</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>DeLong</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>H.4133</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>renee.delong@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>612-659-6481</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Valerie</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Deus</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>H.4118</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>valerie.deus@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>612-659-6478</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Kathleen</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>DeVore</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>H.4123</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>kathleen.devore@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>612-659-6027</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Hope</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Doerner</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Early Childhood Education</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>H.1105</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>hope.doerner@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>612-659-6048</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Troy</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Dvorak</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Psychology</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>H.1417</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>troy.dvorak@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>612-659-6000</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Eiffler</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Languages</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>H.3304</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>maria.eiffler@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>612-659-6042</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Thomas</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Eland</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Library Operations</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>L.1606</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>thomas.eland@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>612-659-6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Jasmine</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Erbs</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Chemistry</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>S.3510</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>jasmine.erbs@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>612-659-6035</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Irene</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Faass</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>H.4117</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>irene.faass@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>612-659-6082</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Holly</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Fairchild</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Reading - College Readiness</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>K.3205</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>holly.fairchild@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>612-659-6562</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Jill</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Frazier</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Professional Nursing</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>H.5128</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>jill.frazier@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>612-659-6143</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Steven</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Frich</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Information Technology Programs</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>T.3063</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>steven.frich@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>612-200-5481</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Joel</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Froehle</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Joel</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Froehle</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Cathy</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Geist</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Biology</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>S.1520</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>cathy.geist@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>612-200-5239</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Shannon</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Gibney</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>H.4122</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>shannon.gibney@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>612-659-6473</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Trina</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Givens-Henry</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Human Services</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>K.1501</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>trina.givens@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>612-659-6985</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Brian</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Grandison</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Theater Arts</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>F.1310</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>brian.grandison@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>612-200-5354</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Timothy</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Gray</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Photography &amp; Digital Imaging</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>T.3502</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>timothy.gray@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>612-200-5556</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>English as a Second Language</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>T.5065</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>linda.green@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>612-659-6039</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Jane</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Gringauz</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Mathematics</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>K.2619</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>jane.gringauz@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>612-659-6040</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Gust</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Reading - College Readiness</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>K.3212</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>linda.gust@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>612-200-5417</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Gust</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Reading - College Readiness</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>K.3212</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>linda.gust@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>612-200-5417</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Carl</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Hammer</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Philosophy</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>H.4145</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>carl.hammer@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>612-200-5330</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Carl</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Hammer</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Philosophy</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>H.4145</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>carl.hammer@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>612-200-5330</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Ranae</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Hanson</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>H.4103</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>ranae.hanson@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>612-659-6046</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Stephen</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Healey</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>H.4128</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>stephen.healey@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>612-659-6418</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Brian</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Heller</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Sound Arts</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>F.2403</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>brian.heller@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>612-200-5280</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Matt</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Helm</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>H.4107</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>matt.helm@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>612-200-5227</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Matt</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Helm</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>H.4107</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>matt.helm@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>612-200-5227</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>William</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Hendricks</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Graphic Design</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>T.4532</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>bill.hendricks@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>612-659-6455</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Craig</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Hergert</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>H.4138</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>craig.hergert@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>612-659-6467</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Kristine</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Heykants</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Photography &amp; Digital Imaging</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>T.3503</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>kristine.heykants@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>612-200-5264</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Kate</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Hibbard</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>H.4137</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>katelynn.hibbard@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>612-659-6049</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Kjrsten</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Holt</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Graphic Design</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>T.4511</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>kjrsten.holt@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>612-200-5327</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Jeffrey</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Hoover</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>English as a Second Language</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>T.5062</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>jeff.hoover@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>612-659-6052</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Cindy</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Houser</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Economics</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>M.1290</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>cindy.houser@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>612-659-6291</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Miki</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Huntington</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Political Science</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>H.1426</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>miki.huntington@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>612-200-5288</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Kelli</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Hutton</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Psychology</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>H.1423</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>kelli.hutton@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>612-659-6000</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Kelli</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Hutton</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Psychology</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>H.1423</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>kelli.hutton@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>612-659-6000</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Clara</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Information Technology Programs</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>T.3066</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>clara.james@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>612-200-5287</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Raquel</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Jarabek</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Astronomy</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>S.2330</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>raquel.jarabek@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>612-200-5215</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Javinsky-Wenzek</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>H.4138</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>michael.javinsky-wenzek@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>612-200-5253</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Vicki</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Apparel Technologies</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>T.5015</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>vicki.johnson@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>612-200-5263</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Nathan</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Architectural Technologies</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>T.4810</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>nathan.johnson@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>612-659-4402</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Stephanie</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Reading - College Readiness</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>K.3202</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>stephanie.johnson@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>612-659-6101</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Johnston</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Photography</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>F.1120</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>john.johnston@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>612-200-5256</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Lena</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Political Science</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>H.1416</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>lena.jones@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>612-659-6010</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Maxine</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Klein</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Theater Arts</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>F.1308</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>maxine.klein@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>612-200-5231</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Klug</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Biology</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>S.1530</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>michael.klug@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>612-659-6437</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Jerry</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Kramer</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Geography</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>H.1411</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>jerry.kramer@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>612-200-5213</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Kuhne</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>H.4141</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>michael.kuhne@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>612-659-6067</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Renu</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Kumar</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Biology</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>S.3520</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>renu.kumar@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>612-659-6047</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Kristina</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Langseth</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Juliette</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Lapeyrouse-Cherry</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>H.4109</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>juliette.lapeyrouse-cherry@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>612-659-4118</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Kathleen</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Lapham</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Dental Assistant</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>H.5002</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>kathleen.lapham@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>612-659-6071</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Mary Jane</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Leach</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>H.4135</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>jane.leach@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>612-659-6074</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Ann</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Lensing</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Dental Assistant</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>H.5001</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>ann.lensing@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>612-200-5341</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Jonathan</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Lofgren</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Addiction Counseling</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>K.1513</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>jonathan.lofgren@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>612-659-6468</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Mary</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Maguire</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Human Services</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>K.1512</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>mary.maguire@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>612-200-5268</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>hared</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>mah</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>hared</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>mah</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Mary</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Maine</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Jennifer</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Malarski</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Business Management</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>M.1260</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>jennifer.malarski@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>612-659-6412</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Rebecca</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>March</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Information Studies</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>L.1403</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>rebecca.march@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>612-659-4147</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Jennifer</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Mason</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Health</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>B.1107</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>jennifer.mason@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>612-659-6165</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Alejandro</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Maya</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Languages</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>H.3306</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>alejandro.maya@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>612-200-5218</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>McCulloch</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Professional Nursing</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>H.5112</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>sarah.mcculloch@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>612-200-5112</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>McDougal</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Elizabeth</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>McLemore</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>H.4114</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>liz.mclemore@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>612-659-6475</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Metcalfe</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Fine Arts</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>T.0912</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>anna.metcalfe@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>612-200-5358</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Catherine</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Sociology</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>H.1409</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>catherine.miller@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>612-659-6037</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Amanda</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Mills</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Information Studies</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>L.1404</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>amanda.mills@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>612-200-5244</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Nadia</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Mohamed</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Global Studies</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>H.1114</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>nadia.mohamed@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>612-200-5385</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Said</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Mohamed</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Human Services</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>K.1515</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>said.mohamed4@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>612-659-6724</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Sidow</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Mohammed</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Languages</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>H.1116</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>sidow.mohammed@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>612-200-5526</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Sidow</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Mohammed</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Languages</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>H.1116</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>sidow.mohammed@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>612-200-5526</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Sidow</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Mohammed</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Languages</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>H.1116</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>sidow.mohammed@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>612-200-5526</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Laurel</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Mohan</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Sociology</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>H.1412</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>laurel.mohan@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>612-659-6050</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Hugo</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Morales</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Heating Ventilating A/C &amp; Refrig.</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>T.0702A</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>hugo.morales@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>612-200-5220</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Todd</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Mulliken</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Psychology</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>H.1419</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>todd.mulliken@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>612-659-4149</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Carl</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Namyst</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Graphic Design</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>T.4500</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>carl.namyst@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>612-659-6000</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Wendy</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Naughton</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Chemistry</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>S.3550</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>wendy.naughton@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>612-659-6065</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Cheryl</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Neudauer</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Biology</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>S.2560</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>cheryl.neudauer@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>612-659-6448</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Keith</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Norton</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Aircraft Technology</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>keith.norton@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>612-248-0915</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Melissa</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>O'Connor</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Reading - College Readiness</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>K.3208</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>melissa.oconnor@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>612-659-6097</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Olson</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Cinema</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>T.4030</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>adam.olson@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>612-200-5511</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Kleber</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Ortiz</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>H.1107</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>kleber.ortiz@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>612-200-5368</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Matthew</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Palombo</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Philosophy</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>H.1113</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>matthew.palombo@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>612-659-6476</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Chhaya</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Patel</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Mathematics</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>K.2602</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>chhaya.patel@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>612-659-6480</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Elizabeth</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Pauly</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Music</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>F.2405</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>elizabeth.pauly@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>612-200-5278</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Nelson</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Perez</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Addiction Counseling</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>K.1509</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>nelson.perez@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>612-200-5439</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Lynn</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Perkins</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Christopher</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Petrilla</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Mathematics</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>K.2624</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>christopher.petrilla@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>612-659-6442</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Catherine</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Pham</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Information Technology Programs</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>T.3067</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>catherine.pham@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>612-659-6000</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Arthur</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Pivec</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Plomondon</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>American Studies</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>H.1412</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>john.plomondon@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>612-659-6477</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Jay</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Portz</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>CNC Machinist</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>T.0253</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>jay.portz@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>612-659-6433</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Prody</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Communication Studies</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>K.3304</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>jessica.prody@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>612-200-5337</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Rama</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Ramaswamy</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Business Management</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>M.1050</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>rama.ramaswamy@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>612-659-6450</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Jennina</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Rice</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Polysomnography Technology</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>T.3943</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>jennina.rice@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>612-200-5356</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Tracee</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Robinson Foote-Adams</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Brian</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Ropers-Huilman</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Mary</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Rosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Gregory</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Rose</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Fine Arts</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>F.1305</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>gregory.rose@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>612-659-6485</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Ruliffson</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Biology</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>S.1540</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>robert.ruliffson@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>612-200-5269</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Samantha</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Sather</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Graphic Design</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>T.4533</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>samantha.sather@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>612-200-5243</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Leann</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Scalia</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Early Childhood Education</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>H.1103</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>leann.scalia@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>612-659-6964</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Melissa</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Schultz</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Student Support Center</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>T.2321</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>melissa.schultz2@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>612-200-5361</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Edward</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Seifert</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Computer Science</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>K.2617</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>ed.seifert@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>612-659-6420</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Seward</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>F.1309</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>michael.seward@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>612-659-6421</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Lijin</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Shu</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Chemistry</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>S.3570</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>lijin.shu@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>612-659-6408</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Ginny</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Sims</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Fine Arts</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>F.2320</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>ginny.sims@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>612-200-5381</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Singel</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Heating Ventilating A/C &amp; Refrig.</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>T.0703</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>john.singel@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>612-200-5523</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Sinkler</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Photography &amp; Digital Imaging</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>T.3502</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>paul.sinkler@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>612-200-5428</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Jennifer</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Sippel</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Library Operations</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>L.1603</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>jennifer.sippel@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>612-659-6434</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Gregory</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Skudlarek</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Heating Ventilating A/C &amp; Refrig.</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>T.0704</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>greg.skudlarek@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>612-659-6424</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Becky</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Skudlarek</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Business Office Technology</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>T.3947</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>becky.skudlarek@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>612-200-5365</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Kendra-Ann</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Sookdeo</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Professional Nursing</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>H.5116</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>kendra-ann.sookdeo@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>612-659-6103</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Donna</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Spikes</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Mathematics</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>K.2613</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>donna.spikes@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>612-659-6459</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Maria Jennifer</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Stauffer</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Accounting</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>M.1160</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>jennifer.stauffer@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>612-659-6440</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Scott</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Storla</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Mathematics</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>K.2605</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>scott.storla@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>612-659-6428</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Lida</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Strot</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>H.4105</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>lidajane.strot@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>612-659-6429</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Joel</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Sundseth</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Music</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>F.2404</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>joel.sundseth@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>612-207-5311</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Maire</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Sustacek</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Biology</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>S.2570</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>maire.sustacek@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>612-659-6493</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Rebecca</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Swadner</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Professional Nursing</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>T.5126</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>rebecca.swadner@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>612-659-6161</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Asha Lal</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Tamang</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Asha Lal</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Tamang</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Nicholas</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Geology</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>S.2320</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>nick.taylor@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>612-659-6432</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Christa</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Tess Kalk</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Patricia</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Tholen-Oswald</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Professional Nursing</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>H.5114</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>patty.tholen-oswald@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>612-200-5302</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Vladimir</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Toledo</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Polysomnography Technology</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>T.3946</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>vladimir.toledo@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>612-200-5472</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Duncan</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Ton</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Information Technology Programs</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>T.3064</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>duncan.ton@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>612-659-6435</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Dean</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Trisko</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Fine Arts</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>F.2320</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>dean.trisko@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>612-659-6436</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Tse</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Communication Studies</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>K.3302</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>linda.tse@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>612-659-6768</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Mimi</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Van Ausdall</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Heidi</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Van Dixhorn-Nesser</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>William</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Vann</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Library Operations</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>L.1605</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>william.vann@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>612-659-6410</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Amanda</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Vindedahl</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Chemistry</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>S.1560</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>amanda.vindedahl@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>612-200-5285</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Nicole</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Watson</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Biology</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>S.3560</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>nicole.watson@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>612-659-6016</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Deborah</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Wertanen</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Communication Studies</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>K.3307</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>deborah.wertanen@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>612-659-6439</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Whitcomb</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Chemistry</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>S.2520</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>david.whitcomb@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>612-200-5291</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Yolanda</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Latoya</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Wilson</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Sociology</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>H.1412</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>latoya.wilson@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>612-200-5206</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Yvonne</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Witt</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Nursing Assistant/Home Health Aide</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>H.5135</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>yvonne.witt@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>612-659-6443</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Maran</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Wolston</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Philosophy</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>H.3303</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>maran.wolston@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>612-200-5323</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Kimberly</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Zernechel</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Reading - College Readiness</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>K.3210</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>kimberly.zernechel@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>612-659-6446</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Katie</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Zittlow Rogness</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Communication Studies</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>K.3309</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>katie.zittlowrogness@minneapolis.edu</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>612-659-6584</t>
         </is>
       </c>
     </row>
